--- a/KDT/src/main/resources/static/upload/testMaterial.xlsx
+++ b/KDT/src/main/resources/static/upload/testMaterial.xlsx
@@ -5,7 +5,7 @@
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MIT-303\Desktop\gitDirectory\KDTProject\더미데이터test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MIT-303\Desktop\gitDirectory\KDTProject\dummyData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
@@ -19,7 +19,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="133">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="134">
+  <x:si>
+    <x:t>e근두운 36v 리튬이온 배터리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LOOBON 고탄성 스프링 쿠션</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노슬릭 스테인레스 브레이크속선</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sp242 시트포스트[레일식]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가로</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자재명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>단가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조립품</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무게</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품</x:t>
+  </x:si>
+  <x:si>
+    <x:t>세로</x:t>
+  </x:si>
+  <x:si>
+    <x:t>높이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부품</x:t>
+  </x:si>
   <x:si>
     <x:t>모터 휠 전면 후면 브러시리스 기어드 허브 Ebike 변환 키트용 48V 500w</x:t>
   </x:si>
@@ -27,397 +66,361 @@
     <x:t>슈발베 29인치[27.5겸용] 프리라이드 광폭 튜브 (40mm) 폭 2.1~3.0</x:t>
   </x:si>
   <x:si>
+    <x:t>COS 스테인레스 블랙 데프콘코팅 브레이크속선</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8인치 허브모터 36v 450w 8×2.00-5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노BR-MT410 유압식 브레이크 캘리퍼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노FC-M6000 데오레 10단 체인휠세트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KUDOS-Q1 세미-인터그레이티드 레드 헤드셋</x:t>
+  </x:si>
+  <x:si>
+    <x:t>브러시리스 기어드 허브 모터 방수 9 핀 36V 250W</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MTB프론트 서스펜션 사이클링 앞 쇼바 알루미늄 포크</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AU테크 레드윙 전동킥보드 전용 계기판/속도계 일반형</x:t>
+  </x:si>
+  <x:si>
+    <x:t>벨로또 29인치 1.5~1.75 프레스타 튜브 40mm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>맥시스 자전거 엠티비타이어 크로스마크 CROSSMARK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>페달</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스포크</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스탠드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>배터리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>발판</x:t>
+  </x:si>
+  <x:si>
+    <x:t>림</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포크</x:t>
+  </x:si>
+  <x:si>
+    <x:t>튜브</x:t>
+  </x:si>
+  <x:si>
+    <x:t>크랭크</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>허브</x:t>
+  </x:si>
+  <x:si>
+    <x:t>프레임</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경적</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캘리퍼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전조등</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타이어</x:t>
+  </x:si>
+  <x:si>
+    <x:t>휠</x:t>
+  </x:si>
+  <x:si>
+    <x:t>핸들바</x:t>
+  </x:si>
+  <x:si>
+    <x:t>헤드셋</x:t>
+  </x:si>
+  <x:si>
+    <x:t>밸브</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노XT PD-M8100 페달 (XC용, SPD 클릿 포함)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노DB-MT201 유압식 디스크 브레이크 (좌우 세트)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>페달 보조 센서 용 12 마그네틱 듀얼 홀 통합 전원 Ebike</x:t>
+  </x:si>
+  <x:si>
+    <x:t>변속기(앞)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메인 케이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기둥 프레임</x:t>
+  </x:si>
+  <x:si>
+    <x:t>바텀브라켓 셋</x:t>
+  </x:si>
+  <x:si>
+    <x:t>킥스탠드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>체인 휠세트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스프라켓</x:t>
+  </x:si>
+  <x:si>
+    <x:t>허브 모터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>변속기(뒤)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>할로겐 전조등</x:t>
+  </x:si>
+  <x:si>
+    <x:t>컨트롤러</x:t>
+  </x:si>
+  <x:si>
+    <x:t>안장 날개</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경적+전조등</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시트 클램프</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시트 포스트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스기노 RD2 PJ130 메신져 트랙 픽시 크랭크세트 46T</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자전거 프레임셋 TSUN 알루미늄 고정 기어 및 포크 트랙 픽시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알루미늄 싱글림 29인치</x:t>
+  </x:si>
+  <x:si>
+    <x:t>48V 800W 컨트롤러</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레인보우 QR 시트클램프</x:t>
+  </x:si>
+  <x:si>
+    <x:t>접이식 핸들 일자형 660</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6구 12W 라이트 + 경적</x:t>
+  </x:si>
+  <x:si>
+    <x:t>훔페르트 컨테스트 핸들바</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노프로 QR 시트클램프</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노RD-M4120 10단</x:t>
+  </x:si>
+  <x:si>
+    <x:t>프레스타 밸브 60mm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>프레스타 밸브 48mm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제로2 RHM V2 드롭바</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노SM-RT56 로터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노HB-M6010 허브</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한국자전거 포크 서스펜션</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스테인리스 스포크 1.8mm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스람 x5 10단 뒷변속기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노SM-RT66 로터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>36V 500W 컨트롤러</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노PD-M520L 페달</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스람 x4 (7,8,9단)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JAK9 브레이크 캘리퍼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노HB-M6000 허브</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알루미늄 더블림 29인치</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노9단 카세트 스프라켓</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노FD-M4000 9단</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8인치 전면 기둥 프레임</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스테인리스 스포크 2.0mm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>페달 보조 센서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로터바이크 인파워 DM 파워미터 크랭크세트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노BL-MT201 브레이크 레버 (우)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노BL-MT201 브레이크 레버 (좌)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노BL-MT200 브레이크 레버 (좌)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노BL-MT200 브레이크 레버 (우)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>48V 리튬이온 배터리 - 볼턴 배터리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KHS-PT1860 인터그레이티드 헤드셋</x:t>
+  </x:si>
+  <x:si>
+    <x:t>36v 1600w BLDC 모터 컨트롤러</x:t>
+  </x:si>
+  <x:si>
+    <x:t>벨로또 세띠아 디펜더(29 x 1.75)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>브레이크 레버 - 좌</x:t>
+  </x:si>
+  <x:si>
     <x:t>브레이크 케이블</x:t>
   </x:si>
   <x:si>
+    <x:t>에르고노믹 핸들 그립</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8인치 에어바퀴 휠</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스탠다드 핸들 그립</x:t>
+  </x:si>
+  <x:si>
+    <x:t>브레이크 레버 - 우</x:t>
+  </x:si>
+  <x:si>
+    <x:t>140mm 로터</x:t>
+  </x:si>
+  <x:si>
     <x:t>계기판+스로틀 레버</x:t>
   </x:si>
   <x:si>
-    <x:t>페달 보조 센서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>에르고노믹 핸들 그립</x:t>
+    <x:t>6선 케이블 1.8m</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LED 전조등</x:t>
+  </x:si>
+  <x:si>
+    <x:t>핸들 그립</x:t>
+  </x:si>
+  <x:si>
+    <x:t>롬 킥 스탠드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>센터 스탠드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수동식 경적</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전자식 경적</x:t>
+  </x:si>
+  <x:si>
+    <x:t>36V 15AH 배터리(기본형)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계기판 스로틀 디스플레이 타입B</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8인치 200×50 통타이어 3번</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서스펜션 시트포스트 pm-705</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노FC-M371 체인휠세트 9단</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노SM-BB52 바텀브라켓</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노E25 옥타링크 바텀브라켓</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8인치 킥보드 쇼바 튜닝용 발판</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계기판 스로틀 디스플레이 타입A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노10단 디오레티아그라 스프라켓</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BTR 무통증 스프링 쿠션 자전거</x:t>
   </x:si>
   <x:si>
     <x:t>전기자전거A</x:t>
   </x:si>
   <x:si>
-    <x:t>체인 휠세트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수동식 경적</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LED 전조등</x:t>
-  </x:si>
-  <x:si>
     <x:t>최소공급수량</x:t>
   </x:si>
   <x:si>
-    <x:t>변속기(앞)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경적+전조등</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시트 클램프</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전자식 경적</x:t>
-  </x:si>
-  <x:si>
-    <x:t>컨트롤러</x:t>
-  </x:si>
-  <x:si>
-    <x:t>안장 날개</x:t>
+    <x:t>자재유형</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기자전거B</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마음자전거C</x:t>
   </x:si>
   <x:si>
     <x:t>전동킥보드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>바텀브라켓 셋</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메인 케이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>롬 킥 스탠드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자재유형</x:t>
-  </x:si>
-  <x:si>
-    <x:t>허브 모터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시트 포스트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>핸들 그립</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스프라켓</x:t>
-  </x:si>
-  <x:si>
-    <x:t>할로겐 전조등</x:t>
-  </x:si>
-  <x:si>
-    <x:t>변속기(뒤)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>센터 스탠드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>킥스탠드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기자전거B</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기둥 프레임</x:t>
-  </x:si>
-  <x:si>
-    <x:t>36V 15AH 배터리(기본형)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시마노FC-M371 체인휠세트 9단</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8인치 200×50 통타이어 3번</x:t>
-  </x:si>
-  <x:si>
-    <x:t>벨로또 29인치 1.5~1.75 프레스타 튜브 40mm</x:t>
-  </x:si>
-  <x:si>
-    <x:t>맥시스 자전거 엠티비타이어 크로스마크 CROSSMARK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MTB프론트 서스펜션 사이클링 앞 쇼바 알루미늄 포크</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AU테크 레드윙 전동킥보드 전용 계기판/속도계 일반형</x:t>
-  </x:si>
-  <x:si>
-    <x:t>브러시리스 기어드 허브 모터 방수 9 핀 36V 250W</x:t>
-  </x:si>
-  <x:si>
-    <x:t>튜브</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품</x:t>
-  </x:si>
-  <x:si>
-    <x:t>림</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스포크</x:t>
-  </x:si>
-  <x:si>
-    <x:t>휠</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캘리퍼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경적</x:t>
-  </x:si>
-  <x:si>
-    <x:t>허브</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타이어</x:t>
-  </x:si>
-  <x:si>
-    <x:t>발판</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스탠드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>프레임</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전조등</x:t>
-  </x:si>
-  <x:si>
-    <x:t>페달</x:t>
-  </x:si>
-  <x:si>
-    <x:t>헤드셋</x:t>
-  </x:si>
-  <x:si>
-    <x:t>배터리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조립품</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부품</x:t>
-  </x:si>
-  <x:si>
-    <x:t>크랭크</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자재명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>핸들바</x:t>
-  </x:si>
-  <x:si>
-    <x:t>밸브</x:t>
-  </x:si>
-  <x:si>
-    <x:t>높이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>세로</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가로</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>단가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무게</x:t>
-  </x:si>
-  <x:si>
-    <x:t>포크</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스람 x4 (7,8,9단)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>48V 800W 컨트롤러</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8인치 전면 기둥 프레임</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제로2 RHM V2 드롭바</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스람 x5 10단 뒷변속기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시마노9단 카세트 스프라켓</x:t>
-  </x:si>
-  <x:si>
-    <x:t>36V 500W 컨트롤러</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6구 12W 라이트 + 경적</x:t>
-  </x:si>
-  <x:si>
-    <x:t>프레스타 밸브 48mm</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시마노SM-RT56 로터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시마노RD-M4120 10단</x:t>
-  </x:si>
-  <x:si>
-    <x:t>프레스타 밸브 60mm</x:t>
-  </x:si>
-  <x:si>
-    <x:t>레인보우 QR 시트클램프</x:t>
-  </x:si>
-  <x:si>
-    <x:t>JAK9 브레이크 캘리퍼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>알루미늄 싱글림 29인치</x:t>
-  </x:si>
-  <x:si>
-    <x:t>접이식 핸들 일자형 660</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시마노SM-RT66 로터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>훔페르트 컨테스트 핸들바</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시마노HB-M6000 허브</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시마노HB-M6010 허브</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스테인리스 스포크 1.8mm</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스테인리스 스포크 2.0mm</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시마노FD-M4000 9단</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시마노프로 QR 시트클램프</x:t>
-  </x:si>
-  <x:si>
-    <x:t>알루미늄 더블림 29인치</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시마노PD-M520L 페달</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한국자전거 포크 서스펜션</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스탠다드 핸들 그립</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8인치 에어바퀴 휠</x:t>
-  </x:si>
-  <x:si>
-    <x:t>브레이크 레버 - 좌</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6선 케이블 1.8m</x:t>
-  </x:si>
-  <x:si>
-    <x:t>브레이크 레버 - 우</x:t>
-  </x:si>
-  <x:si>
-    <x:t>140mm 로터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>36v 1600w BLDC 모터 컨트롤러</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로터바이크 인파워 DM 파워미터 크랭크세트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시마노BL-MT200 브레이크 레버 (좌)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>벨로또 세띠아 디펜더(29 x 1.75)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KHS-PT1860 인터그레이티드 헤드셋</x:t>
-  </x:si>
-  <x:si>
-    <x:t>48V 리튬이온 배터리 - 볼턴 배터리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시마노BL-MT201 브레이크 레버 (우)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시마노BL-MT200 브레이크 레버 (우)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시마노BL-MT201 브레이크 레버 (좌)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8인치 허브모터 36v 450w 8×2.00-5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KUDOS-Q1 세미-인터그레이티드 레드 헤드셋</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시마노FC-M6000 데오레 10단 체인휠세트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>COS 스테인레스 블랙 데프콘코팅 브레이크속선</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시마노BR-MT410 유압식 브레이크 캘리퍼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>페달 보조 센서 용 12 마그네틱 듀얼 홀 통합 전원 Ebike</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LOOBON 고탄성 스프링 쿠션</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시마노슬릭 스테인레스 브레이크속선</x:t>
-  </x:si>
-  <x:si>
-    <x:t>계기판 스로틀 디스플레이 타입A</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8인치 킥보드 쇼바 튜닝용 발판</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BTR 무통증 스프링 쿠션 자전거</x:t>
-  </x:si>
-  <x:si>
-    <x:t>계기판 스로틀 디스플레이 타입B</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시마노SM-BB52 바텀브라켓</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시마노10단 디오레티아그라 스프라켓</x:t>
-  </x:si>
-  <x:si>
-    <x:t>e근두운 36v 리튬이온 배터리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시마노E25 옥타링크 바텀브라켓</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sp242 시트포스트[레일식]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서스펜션 시트포스트 pm-705</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자전거 프레임셋 TSUN 알루미늄 고정 기어 및 포크 트랙 픽시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시마노DB-MT201 유압식 디스크 브레이크 (좌우 세트)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시마노XT PD-M8100 페달 (XC용, SPD 클릿 포함)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스기노 RD2 PJ130 메신져 트랙 픽시 크랭크세트 46T</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1190,10 +1193,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:M83"/>
+  <x:dimension ref="A1:M84"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="F92" activeCellId="0" sqref="F92:F92"/>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="A2" activeCellId="0" sqref="A2:A84"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.39999999999999857891"/>
@@ -1208,34 +1211,34 @@
   <x:sheetData>
     <x:row r="1" spans="1:13">
       <x:c r="A1" s="5" t="s">
-        <x:v>41</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B1" s="5" t="s">
-        <x:v>57</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C1" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="D1" s="5" t="s">
-        <x:v>59</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E1" s="5" t="s">
-        <x:v>62</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F1" s="5" t="s">
-        <x:v>63</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G1" s="5" t="s">
-        <x:v>64</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H1" s="5" t="s">
-        <x:v>67</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I1" s="5" t="s">
-        <x:v>66</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="J1" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="K1" s="5"/>
       <x:c r="L1" s="5"/>
@@ -1243,16 +1246,16 @@
     </x:row>
     <x:row r="2" spans="1:13">
       <x:c r="A2" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C2" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D2" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="E2" s="2">
         <x:v>70</x:v>
@@ -1278,16 +1281,16 @@
     </x:row>
     <x:row r="3" spans="1:13">
       <x:c r="A3" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="C3" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D3" s="2" t="s">
-        <x:v>119</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="E3" s="2">
         <x:v>60</x:v>
@@ -1313,16 +1316,16 @@
     </x:row>
     <x:row r="4" spans="1:13">
       <x:c r="A4" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>65</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C4" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D4" s="2" t="s">
-        <x:v>85</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="E4" s="2">
         <x:v>60</x:v>
@@ -1348,16 +1351,16 @@
     </x:row>
     <x:row r="5" spans="1:13">
       <x:c r="A5" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D5" s="2" t="s">
-        <x:v>93</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E5" s="2">
         <x:v>60</x:v>
@@ -1383,16 +1386,16 @@
     </x:row>
     <x:row r="6" spans="1:13">
       <x:c r="A6" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C6" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D6" s="2" t="s">
-        <x:v>123</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="E6" s="2">
         <x:v>60</x:v>
@@ -1418,16 +1421,16 @@
     </x:row>
     <x:row r="7" spans="1:13">
       <x:c r="A7" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>55</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C7" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D7" s="2" t="s">
-        <x:v>107</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="E7" s="2">
         <x:v>60</x:v>
@@ -1453,16 +1456,16 @@
     </x:row>
     <x:row r="8" spans="1:13">
       <x:c r="A8" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C8" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D8" s="2" t="s">
-        <x:v>80</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E8" s="2">
         <x:v>60</x:v>
@@ -1488,16 +1491,16 @@
     </x:row>
     <x:row r="9" spans="1:13">
       <x:c r="A9" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C9" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D9" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E9" s="2">
         <x:v>60</x:v>
@@ -1523,16 +1526,16 @@
     </x:row>
     <x:row r="10" spans="1:13">
       <x:c r="A10" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C10" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D10" s="2" t="s">
-        <x:v>79</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E10" s="2">
         <x:v>60</x:v>
@@ -1558,16 +1561,16 @@
     </x:row>
     <x:row r="11" spans="1:13">
       <x:c r="A11" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>100</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="C11" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D11" s="2" t="s">
-        <x:v>108</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E11" s="2">
         <x:v>60</x:v>
@@ -1593,16 +1596,16 @@
     </x:row>
     <x:row r="12" spans="1:13">
       <x:c r="A12" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
-        <x:v>98</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="C12" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D12" s="2" t="s">
-        <x:v>110</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="E12" s="2">
         <x:v>60</x:v>
@@ -1628,16 +1631,16 @@
     </x:row>
     <x:row r="13" spans="1:13">
       <x:c r="A13" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="C13" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D13" s="2" t="s">
-        <x:v>114</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E13" s="2">
         <x:v>60</x:v>
@@ -1663,16 +1666,16 @@
     </x:row>
     <x:row r="14" spans="1:13">
       <x:c r="A14" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C14" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D14" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E14" s="2">
         <x:v>60</x:v>
@@ -1698,16 +1701,16 @@
     </x:row>
     <x:row r="15" spans="1:12">
       <x:c r="A15" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
-        <x:v>43</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C15" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D15" s="2" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E15" s="2">
         <x:v>60</x:v>
@@ -1732,16 +1735,16 @@
     </x:row>
     <x:row r="16" spans="1:12">
       <x:c r="A16" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C16" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D16" s="2" t="s">
-        <x:v>124</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="E16" s="2">
         <x:v>61</x:v>
@@ -1766,16 +1769,16 @@
     </x:row>
     <x:row r="17" spans="1:13">
       <x:c r="A17" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C17" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D17" s="2" t="s">
-        <x:v>92</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E17" s="2">
         <x:v>62</x:v>
@@ -1801,16 +1804,16 @@
     </x:row>
     <x:row r="18" spans="1:13">
       <x:c r="A18" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C18" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D18" s="2" t="s">
-        <x:v>128</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="E18" s="2">
         <x:v>63</x:v>
@@ -1836,16 +1839,16 @@
     </x:row>
     <x:row r="19" spans="1:13">
       <x:c r="A19" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
-        <x:v>16</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C19" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D19" s="2" t="s">
-        <x:v>121</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="E19" s="2">
         <x:v>64</x:v>
@@ -1871,16 +1874,16 @@
     </x:row>
     <x:row r="20" spans="1:13">
       <x:c r="A20" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
-        <x:v>52</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C20" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D20" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="E20" s="2">
         <x:v>65</x:v>
@@ -1906,16 +1909,16 @@
     </x:row>
     <x:row r="21" spans="1:13">
       <x:c r="A21" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C21" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D21" s="2" t="s">
-        <x:v>113</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E21" s="2">
         <x:v>66</x:v>
@@ -1941,16 +1944,16 @@
     </x:row>
     <x:row r="22" spans="1:13">
       <x:c r="A22" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
-        <x:v>45</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C22" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D22" s="2" t="s">
-        <x:v>130</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E22" s="2">
         <x:v>67</x:v>
@@ -1976,16 +1979,16 @@
     </x:row>
     <x:row r="23" spans="1:13">
       <x:c r="A23" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B23" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C23" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D23" s="2" t="s">
-        <x:v>70</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E23" s="2">
         <x:v>68</x:v>
@@ -2011,16 +2014,16 @@
     </x:row>
     <x:row r="24" spans="1:13">
       <x:c r="A24" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
-        <x:v>58</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C24" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D24" s="2" t="s">
-        <x:v>103</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="E24" s="2">
         <x:v>69</x:v>
@@ -2046,16 +2049,16 @@
     </x:row>
     <x:row r="25" spans="1:13">
       <x:c r="A25" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
-        <x:v>48</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C25" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D25" s="2" t="s">
-        <x:v>36</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E25" s="2">
         <x:v>70</x:v>
@@ -2081,16 +2084,16 @@
     </x:row>
     <x:row r="26" spans="1:13">
       <x:c r="A26" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
-        <x:v>40</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C26" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D26" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E26" s="2">
         <x:v>70</x:v>
@@ -2116,16 +2119,16 @@
     </x:row>
     <x:row r="27" spans="1:13">
       <x:c r="A27" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C27" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D27" s="2" t="s">
-        <x:v>131</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="E27" s="2">
         <x:v>70</x:v>
@@ -2151,16 +2154,16 @@
     </x:row>
     <x:row r="28" spans="1:13">
       <x:c r="A28" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B28" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="C28" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D28" s="2" t="s">
-        <x:v>116</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="E28" s="2">
         <x:v>70</x:v>
@@ -2186,16 +2189,16 @@
     </x:row>
     <x:row r="29" spans="1:13">
       <x:c r="A29" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B29" s="2" t="s">
-        <x:v>68</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C29" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D29" s="2" t="s">
-        <x:v>95</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E29" s="2">
         <x:v>70</x:v>
@@ -2221,16 +2224,16 @@
     </x:row>
     <x:row r="30" spans="1:13">
       <x:c r="A30" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B30" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C30" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D30" s="2" t="s">
-        <x:v>129</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E30" s="2">
         <x:v>70</x:v>
@@ -2256,16 +2259,16 @@
     </x:row>
     <x:row r="31" spans="1:13">
       <x:c r="A31" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B31" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="C31" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D31" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E31" s="2">
         <x:v>70</x:v>
@@ -2291,16 +2294,16 @@
     </x:row>
     <x:row r="32" spans="1:13">
       <x:c r="A32" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B32" s="2" t="s">
-        <x:v>60</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C32" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D32" s="2" t="s">
-        <x:v>72</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E32" s="2">
         <x:v>70</x:v>
@@ -2326,16 +2329,16 @@
     </x:row>
     <x:row r="33" spans="1:13">
       <x:c r="A33" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B33" s="2" t="s">
-        <x:v>47</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C33" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D33" s="2" t="s">
-        <x:v>88</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E33" s="2">
         <x:v>70</x:v>
@@ -2361,16 +2364,16 @@
     </x:row>
     <x:row r="34" spans="1:13">
       <x:c r="A34" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B34" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C34" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D34" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E34" s="2">
         <x:v>70</x:v>
@@ -2396,16 +2399,16 @@
     </x:row>
     <x:row r="35" spans="1:13">
       <x:c r="A35" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B35" s="2" t="s">
-        <x:v>54</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C35" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D35" s="2" t="s">
-        <x:v>106</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E35" s="2">
         <x:v>70</x:v>
@@ -2431,16 +2434,16 @@
     </x:row>
     <x:row r="36" spans="1:13">
       <x:c r="A36" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="B36" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C36" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D36" s="2" t="s">
-        <x:v>76</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="E36" s="2">
         <x:v>70</x:v>
@@ -2466,16 +2469,16 @@
     </x:row>
     <x:row r="37" spans="1:13">
       <x:c r="A37" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="B37" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="C37" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D37" s="2" t="s">
-        <x:v>38</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E37" s="2">
         <x:v>70</x:v>
@@ -2501,16 +2504,16 @@
     </x:row>
     <x:row r="38" spans="1:13">
       <x:c r="A38" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="B38" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C38" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D38" s="2" t="s">
-        <x:v>71</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="E38" s="2">
         <x:v>70</x:v>
@@ -2536,16 +2539,16 @@
     </x:row>
     <x:row r="39" spans="1:13">
       <x:c r="A39" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="B39" s="2" t="s">
-        <x:v>65</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C39" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D39" s="2" t="s">
-        <x:v>101</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="E39" s="2">
         <x:v>70</x:v>
@@ -2571,16 +2574,16 @@
     </x:row>
     <x:row r="40" spans="1:13">
       <x:c r="A40" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="B40" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C40" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D40" s="2" t="s">
-        <x:v>99</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="E40" s="2">
         <x:v>70</x:v>
@@ -2606,16 +2609,16 @@
     </x:row>
     <x:row r="41" spans="1:13">
       <x:c r="A41" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="B41" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C41" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D41" s="2" t="s">
-        <x:v>120</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="2">
         <x:v>70</x:v>
@@ -2641,16 +2644,16 @@
     </x:row>
     <x:row r="42" spans="1:13">
       <x:c r="A42" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="B42" s="2" t="s">
-        <x:v>55</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C42" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D42" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="E42" s="2">
         <x:v>70</x:v>
@@ -2676,16 +2679,16 @@
     </x:row>
     <x:row r="43" spans="1:13">
       <x:c r="A43" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="B43" s="2" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C43" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D43" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="E43" s="2">
         <x:v>70</x:v>
@@ -2711,16 +2714,16 @@
     </x:row>
     <x:row r="44" spans="1:13">
       <x:c r="A44" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="B44" s="2" t="s">
-        <x:v>45</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C44" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D44" s="2" t="s">
-        <x:v>82</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E44" s="2">
         <x:v>70</x:v>
@@ -2746,16 +2749,16 @@
     </x:row>
     <x:row r="45" spans="1:13">
       <x:c r="A45" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="B45" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C45" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D45" s="2" t="s">
-        <x:v>102</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="E45" s="2">
         <x:v>70</x:v>
@@ -2781,16 +2784,16 @@
     </x:row>
     <x:row r="46" spans="1:13">
       <x:c r="A46" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="B46" s="2" t="s">
-        <x:v>48</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C46" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D46" s="2" t="s">
-        <x:v>34</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="E46" s="2">
         <x:v>70</x:v>
@@ -2816,16 +2819,16 @@
     </x:row>
     <x:row r="47" spans="1:13">
       <x:c r="A47" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="B47" s="2" t="s">
-        <x:v>60</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C47" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D47" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="E47" s="2">
         <x:v>70</x:v>
@@ -2851,16 +2854,16 @@
     </x:row>
     <x:row r="48" spans="1:13">
       <x:c r="A48" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="B48" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C48" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D48" s="2" t="s">
-        <x:v>111</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E48" s="2">
         <x:v>70</x:v>
@@ -2886,16 +2889,16 @@
     </x:row>
     <x:row r="49" spans="1:13">
       <x:c r="A49" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="B49" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C49" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D49" s="2" t="s">
-        <x:v>97</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E49" s="2">
         <x:v>70</x:v>
@@ -2921,16 +2924,16 @@
     </x:row>
     <x:row r="50" spans="1:12">
       <x:c r="A50" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="B50" s="2" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C50" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D50" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="E50" s="2">
         <x:v>100</x:v>
@@ -2955,16 +2958,16 @@
     </x:row>
     <x:row r="51" spans="1:13">
       <x:c r="A51" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="B51" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="C51" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D51" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="E51" s="2">
         <x:v>100</x:v>
@@ -2990,16 +2993,16 @@
     </x:row>
     <x:row r="52" spans="1:13">
       <x:c r="A52" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="B52" s="2" t="s">
-        <x:v>65</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C52" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D52" s="2" t="s">
-        <x:v>78</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E52" s="2">
         <x:v>100</x:v>
@@ -3025,16 +3028,16 @@
     </x:row>
     <x:row r="53" spans="1:13">
       <x:c r="A53" s="2" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="B53" s="2" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="B53" s="2" t="s">
-        <x:v>42</x:v>
-      </x:c>
       <x:c r="C53" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D53" s="2" t="s">
-        <x:v>83</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E53" s="2">
         <x:v>100</x:v>
@@ -3060,16 +3063,16 @@
     </x:row>
     <x:row r="54" spans="1:13">
       <x:c r="A54" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="B54" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C54" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D54" s="2" t="s">
-        <x:v>126</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="E54" s="2">
         <x:v>100</x:v>
@@ -3095,16 +3098,16 @@
     </x:row>
     <x:row r="55" spans="1:13">
       <x:c r="A55" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="B55" s="2" t="s">
-        <x:v>55</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C55" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D55" s="2" t="s">
-        <x:v>125</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E55" s="2">
         <x:v>100</x:v>
@@ -3130,16 +3133,16 @@
     </x:row>
     <x:row r="56" spans="1:13">
       <x:c r="A56" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="B56" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C56" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D56" s="2" t="s">
-        <x:v>77</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="E56" s="2">
         <x:v>100</x:v>
@@ -3165,16 +3168,16 @@
     </x:row>
     <x:row r="57" spans="1:13">
       <x:c r="A57" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="B57" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C57" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D57" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E57" s="2">
         <x:v>100</x:v>
@@ -3200,16 +3203,16 @@
     </x:row>
     <x:row r="58" spans="1:13">
       <x:c r="A58" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="B58" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C58" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D58" s="2" t="s">
-        <x:v>91</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E58" s="2">
         <x:v>100</x:v>
@@ -3235,16 +3238,16 @@
     </x:row>
     <x:row r="59" spans="1:13">
       <x:c r="A59" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="B59" s="2" t="s">
-        <x:v>100</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="C59" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D59" s="2" t="s">
-        <x:v>109</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="E59" s="2">
         <x:v>100</x:v>
@@ -3270,16 +3273,16 @@
     </x:row>
     <x:row r="60" spans="1:13">
       <x:c r="A60" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="B60" s="2" t="s">
-        <x:v>98</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="C60" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D60" s="2" t="s">
-        <x:v>104</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="E60" s="2">
         <x:v>100</x:v>
@@ -3305,16 +3308,16 @@
     </x:row>
     <x:row r="61" spans="1:13">
       <x:c r="A61" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="B61" s="2" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="C61" s="3" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D61" s="2" t="s">
         <x:v>2</x:v>
-      </x:c>
-      <x:c r="C61" s="3" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="D61" s="2" t="s">
-        <x:v>118</x:v>
       </x:c>
       <x:c r="E61" s="2">
         <x:v>100</x:v>
@@ -3340,16 +3343,16 @@
     </x:row>
     <x:row r="62" spans="1:13">
       <x:c r="A62" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="B62" s="2" t="s">
-        <x:v>50</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C62" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D62" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="E62" s="2">
         <x:v>100</x:v>
@@ -3375,16 +3378,16 @@
     </x:row>
     <x:row r="63" spans="1:13">
       <x:c r="A63" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="B63" s="2" t="s">
-        <x:v>43</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C63" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D63" s="2" t="s">
-        <x:v>89</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E63" s="2">
         <x:v>100</x:v>
@@ -3410,16 +3413,16 @@
     </x:row>
     <x:row r="64" spans="1:13">
       <x:c r="A64" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="B64" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C64" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D64" s="2" t="s">
-        <x:v>74</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E64" s="2">
         <x:v>100</x:v>
@@ -3445,16 +3448,16 @@
     </x:row>
     <x:row r="65" spans="1:13">
       <x:c r="A65" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="B65" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C65" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D65" s="2" t="s">
-        <x:v>81</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="E65" s="2">
         <x:v>100</x:v>
@@ -3480,16 +3483,16 @@
     </x:row>
     <x:row r="66" spans="1:13">
       <x:c r="A66" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="B66" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C66" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D66" s="2" t="s">
-        <x:v>127</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E66" s="2">
         <x:v>100</x:v>
@@ -3515,16 +3518,16 @@
     </x:row>
     <x:row r="67" spans="1:13">
       <x:c r="A67" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="B67" s="2" t="s">
-        <x:v>16</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C67" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D67" s="2" t="s">
-        <x:v>117</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E67" s="2">
         <x:v>100</x:v>
@@ -3550,16 +3553,16 @@
     </x:row>
     <x:row r="68" spans="1:13">
       <x:c r="A68" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="B68" s="2" t="s">
-        <x:v>52</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C68" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D68" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E68" s="2">
         <x:v>100</x:v>
@@ -3585,16 +3588,16 @@
     </x:row>
     <x:row r="69" spans="1:13">
       <x:c r="A69" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="B69" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C69" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D69" s="2" t="s">
-        <x:v>33</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="E69" s="2">
         <x:v>100</x:v>
@@ -3620,16 +3623,16 @@
     </x:row>
     <x:row r="70" spans="1:13">
       <x:c r="A70" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="B70" s="2" t="s">
-        <x:v>45</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C70" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D70" s="2" t="s">
-        <x:v>115</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E70" s="2">
         <x:v>100</x:v>
@@ -3655,16 +3658,16 @@
     </x:row>
     <x:row r="71" spans="1:13">
       <x:c r="A71" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="B71" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C71" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D71" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="E71" s="2">
         <x:v>100</x:v>
@@ -3690,16 +3693,16 @@
     </x:row>
     <x:row r="72" spans="1:13">
       <x:c r="A72" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="B72" s="2" t="s">
-        <x:v>58</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C72" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D72" s="2" t="s">
-        <x:v>132</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E72" s="2">
         <x:v>100</x:v>
@@ -3725,16 +3728,16 @@
     </x:row>
     <x:row r="73" spans="1:13">
       <x:c r="A73" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="B73" s="2" t="s">
-        <x:v>48</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C73" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D73" s="2" t="s">
-        <x:v>105</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E73" s="2">
         <x:v>100</x:v>
@@ -3760,16 +3763,16 @@
     </x:row>
     <x:row r="74" spans="1:13">
       <x:c r="A74" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="B74" s="2" t="s">
-        <x:v>40</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C74" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D74" s="2" t="s">
-        <x:v>35</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E74" s="2">
         <x:v>100</x:v>
@@ -3795,16 +3798,16 @@
     </x:row>
     <x:row r="75" spans="1:13">
       <x:c r="A75" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="B75" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C75" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D75" s="2" t="s">
-        <x:v>94</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="E75" s="2">
         <x:v>100</x:v>
@@ -3830,16 +3833,16 @@
     </x:row>
     <x:row r="76" spans="1:13">
       <x:c r="A76" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="B76" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="C76" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D76" s="2" t="s">
-        <x:v>116</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="E76" s="2">
         <x:v>100</x:v>
@@ -3865,16 +3868,16 @@
     </x:row>
     <x:row r="77" spans="1:13">
       <x:c r="A77" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="B77" s="2" t="s">
-        <x:v>68</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C77" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D77" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E77" s="2">
         <x:v>100</x:v>
@@ -3900,16 +3903,16 @@
     </x:row>
     <x:row r="78" spans="1:13">
       <x:c r="A78" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="B78" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C78" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D78" s="2" t="s">
-        <x:v>129</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E78" s="2">
         <x:v>100</x:v>
@@ -3935,16 +3938,16 @@
     </x:row>
     <x:row r="79" spans="1:13">
       <x:c r="A79" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="B79" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="C79" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D79" s="2" t="s">
-        <x:v>96</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="E79" s="2">
         <x:v>100</x:v>
@@ -3970,16 +3973,16 @@
     </x:row>
     <x:row r="80" spans="1:13">
       <x:c r="A80" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="B80" s="2" t="s">
-        <x:v>60</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C80" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D80" s="2" t="s">
-        <x:v>86</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E80" s="2">
         <x:v>100</x:v>
@@ -4005,16 +4008,16 @@
     </x:row>
     <x:row r="81" spans="1:13">
       <x:c r="A81" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="B81" s="2" t="s">
-        <x:v>47</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C81" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D81" s="2" t="s">
-        <x:v>87</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="E81" s="2">
         <x:v>100</x:v>
@@ -4040,16 +4043,16 @@
     </x:row>
     <x:row r="82" spans="1:13">
       <x:c r="A82" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="B82" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C82" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D82" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E82" s="2">
         <x:v>100</x:v>
@@ -4075,16 +4078,16 @@
     </x:row>
     <x:row r="83" spans="1:13">
       <x:c r="A83" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="B83" s="2" t="s">
-        <x:v>54</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C83" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D83" s="2" t="s">
-        <x:v>112</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E83" s="2">
         <x:v>100</x:v>
@@ -4107,6 +4110,38 @@
       <x:c r="K83" s="2"/>
       <x:c r="L83" s="2"/>
       <x:c r="M83" s="2"/>
+    </x:row>
+    <x:row r="84" spans="1:10">
+      <x:c r="A84" s="4" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="B84" s="2" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C84" s="3" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D84" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E84" s="2">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="F84" s="2">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="G84" s="2">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H84" s="2">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I84" s="2">
+        <x:v>30000</x:v>
+      </x:c>
+      <x:c r="J84" s="2">
+        <x:v>130</x:v>
+      </x:c>
     </x:row>
   </x:sheetData>
   <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51138889789581298828" footer="0.51138889789581298828"/>
